--- a/data/050708.xlsx
+++ b/data/050708.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>YWLSH</t>
   </si>
@@ -125,6 +125,39 @@
   </si>
   <si>
     <t>13425197889</t>
+  </si>
+  <si>
+    <t>De86ddd0ff92346c69f533eb253e01042</t>
+  </si>
+  <si>
+    <t>91440300MA5DC4PX3M</t>
+  </si>
+  <si>
+    <t>深圳市德和生物科技有限公司</t>
+  </si>
+  <si>
+    <t>440300700030</t>
+  </si>
+  <si>
+    <t>程某</t>
+  </si>
+  <si>
+    <t>实验室</t>
+  </si>
+  <si>
+    <t>91440300MA5D87Y74G</t>
+  </si>
+  <si>
+    <t>深圳市宇彦科技有限公司</t>
+  </si>
+  <si>
+    <t>深圳市 龙岗区 龙城街道对面岭西路鸿倡发工业区1栋</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>440300700163</t>
   </si>
 </sst>
 </file>
@@ -132,13 +165,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -146,24 +179,150 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,127 +333,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -305,187 +343,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,15 +534,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,37 +552,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,9 +578,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,157 +619,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1066,15 +1106,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
@@ -1176,7 +1216,7 @@
       <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
@@ -1226,6 +1266,71 @@
       </c>
       <c r="U2" s="1">
         <v>43161.40625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43163.3868055556</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="1">
+        <v>43163.3875</v>
       </c>
     </row>
   </sheetData>
